--- a/Assets/StreamingAssets/5_He.xlsx
+++ b/Assets/StreamingAssets/5_He.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32487FB7-E2AE-B745-B727-BD533605B2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F952C1-0738-CB45-A4DC-49FB516EE537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="81">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>He-Pity1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,16 +335,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Now let’s hear Ling’s testimony.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5_He_Ling</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Pity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Regular1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Regular2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appearAt</t>
   </si>
 </sst>
 </file>
@@ -744,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -817,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -838,7 +845,7 @@
         <v>500</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17">
@@ -846,13 +853,16 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -863,13 +873,16 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -880,13 +893,16 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -897,20 +913,25 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K6" s="2">
         <v>500</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="34">
@@ -918,13 +939,16 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -932,10 +956,13 @@
     </row>
     <row r="8" spans="1:16" ht="34">
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -943,10 +970,13 @@
     </row>
     <row r="9" spans="1:16" ht="17">
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -954,10 +984,13 @@
     </row>
     <row r="10" spans="1:16" ht="17">
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -968,13 +1001,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -985,13 +1021,16 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1002,13 +1041,16 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1019,20 +1061,25 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K14" s="2">
         <v>500</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="34">
@@ -1040,13 +1087,16 @@
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1057,13 +1107,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1074,10 +1127,13 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1088,15 +1144,20 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K18" s="2">
         <v>500</v>
       </c>
@@ -1109,13 +1170,16 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1126,20 +1190,25 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K20" s="2">
         <v>500</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17">
@@ -1147,13 +1216,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1164,13 +1236,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1178,10 +1253,13 @@
     </row>
     <row r="23" spans="1:12" ht="68">
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1189,10 +1267,13 @@
     </row>
     <row r="24" spans="1:12" ht="51">
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1200,10 +1281,13 @@
     </row>
     <row r="25" spans="1:12" ht="34">
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1214,13 +1298,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1231,7 +1318,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -1239,12 +1326,17 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="K27" s="2">
         <v>500</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="34">
@@ -1252,13 +1344,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1269,13 +1364,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1286,15 +1384,20 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K30" s="2">
         <v>500</v>
       </c>
@@ -1307,13 +1410,16 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1321,10 +1427,13 @@
     </row>
     <row r="32" spans="1:12" ht="51">
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1332,10 +1441,13 @@
     </row>
     <row r="33" spans="1:12" ht="51">
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1346,13 +1458,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1363,7 +1478,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
@@ -1371,12 +1486,17 @@
       <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K35" s="2">
         <v>500</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="34">
@@ -1384,13 +1504,16 @@
         <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1401,13 +1524,16 @@
         <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>30</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1415,10 +1541,13 @@
     </row>
     <row r="38" spans="1:12" ht="51">
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1429,13 +1558,16 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1446,13 +1578,16 @@
         <v>24</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -1463,7 +1598,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -1471,12 +1606,17 @@
       <c r="D41" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="2"/>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K41" s="2">
         <v>500</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17">
@@ -1484,13 +1624,16 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -1501,47 +1644,42 @@
         <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="34">
+    <row r="44" spans="1:12" ht="17">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
       <c r="B44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
         <v>76</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="2"/>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" ht="17">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/5_He.xlsx
+++ b/Assets/StreamingAssets/5_He.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F952C1-0738-CB45-A4DC-49FB516EE537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20298037-F050-F44D-B20C-1CE73F188D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -167,46 +167,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Aren’t you very familiar with the layout of the manor, Steward He?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As the steward, that’s part of my duty.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Because of my job, I walk around the manor all the time.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When was the last time you saw Master Xu today?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The last time I saw the Master was shortly before the banquet was scheduled to begin.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I mean, shortly before the originally scheduled start time.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Around the beginning of the Wu hour.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But the actual banquet started at mid-Wu.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Can you be more precise about the time?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Roughly the second quarter of the You hour.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Where were you and what were you doing before that?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,26 +187,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I was there with Ling and Chen the entire time—they can confirm that.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Once dinner was ready, I suddenly remembered I’d forgotten to refill the lanterns at the guestroom doors.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>So I went to the backyard right before the second quarter of the You hour.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Just as I arrived, I saw the Lord coming out.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>He told me that Lady Mei wasn’t feeling well and wouldn’t attend the banquet.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He said he was going to find Doctor Ran, and if they didn’t arrive on time, to delay the banquet a bit.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Are the clothes on Lord Xu’s body now the same ones you saw him wearing last time?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yes, it’s the same. That outfit is his only set.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>After the Wu hour, I spent most of my time in the banquet hall with everyone else, waiting for the Master to show up.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>From time to time, I went to the kitchen with Ling to reheat the food.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,18 +255,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No. Before I helped the Young Master search for the Master, I only moved between the banquet hall and the kitchen.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(I remember you came to inform us of the original start time, which was—)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(First, if what you said is true, then Lord Xu was still alive at the second quarter of the You hour, and he left the backyard of his own accord.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Second, he left to find Doctor Ran, so logically, he should’ve been heading toward Doctor Ran’s room next.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,18 +267,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(If Lord Xu was killed after it began raining, the killer’s clothes would probably have gotten wet, right?)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(I looked closely at He's clothes. They’re slightly damp, but overall, still quite neat and dry.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(If he was going to find a doctor for Lady Mei, being in a rush would)&lt;/color&gt; make sense, wouldn’t it?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,13 +292,89 @@
   </si>
   <si>
     <t>appearAt</t>
+  </si>
+  <si>
+    <t>Aren’t you very familiar with the layout of the manor?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As the butler, that’s part of my duty.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When was the last time you saw the Lord today?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The last time I saw the Lord was shortly before the banquet was scheduled to begin.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Around the beginning of the 7 PM.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But the actual banquet started at 8 PM.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Roughly 6.30 PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He told me that Madam Mei wasn’t feeling well and wouldn’t attend the banquet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(First, if Butler He said is true, then the Lordd was still alive at 6.30 PM, and he left the backyard of his own accord.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was there with Ling and Chen the entire time——they can confirm that.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(If the Lord was killed after it began raining, the killer’s clothes would probably have gotten wet, right?)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are the clothes on the Lord’s body now the same ones you saw him wearing last time?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(If he was going to find a doctor for Mei, being in a rush would make sense, wouldn’t it?)&lt;/color&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After 7 PM, I spent most of my time in the banquet hall with everyone else, waiting for the Lord to show up.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. Before I helped the Young Lord search for the Lord, I only moved between the banquet hall and the kitchen.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So I went to the backyard right before 6.30 PM.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,6 +389,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -407,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,6 +442,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -819,12 +848,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="34">
+    <row r="2" spans="1:16" ht="17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -853,7 +882,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -873,7 +902,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -893,7 +922,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -913,10 +942,10 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -931,7 +960,7 @@
         <v>500</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="34">
@@ -939,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -956,7 +985,7 @@
     </row>
     <row r="8" spans="1:16" ht="34">
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -969,8 +998,8 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="17">
-      <c r="B9" s="1" t="s">
-        <v>39</v>
+      <c r="B9" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -983,8 +1012,8 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="17">
-      <c r="B10" s="1" t="s">
-        <v>40</v>
+      <c r="B10" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1001,7 +1030,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1021,10 +1050,10 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1041,7 +1070,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1061,10 +1090,10 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1087,10 +1116,10 @@
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1107,10 +1136,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1122,15 +1151,15 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="34">
+    <row r="17" spans="1:12" ht="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -1144,10 +1173,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1170,10 +1199,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1190,10 +1219,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1208,7 +1237,7 @@
         <v>500</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17">
@@ -1216,7 +1245,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -1236,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -1251,9 +1280,9 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="68">
+    <row r="23" spans="1:12" ht="51">
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1267,7 +1296,7 @@
     </row>
     <row r="24" spans="1:12" ht="51">
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -1281,7 +1310,7 @@
     </row>
     <row r="25" spans="1:12" ht="34">
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -1298,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -1318,7 +1347,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -1330,7 +1359,7 @@
         <v>21</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K27" s="2">
         <v>500</v>
@@ -1344,7 +1373,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -1364,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -1384,10 +1413,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -1410,10 +1439,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -1427,7 +1456,7 @@
     </row>
     <row r="32" spans="1:12" ht="51">
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -1441,7 +1470,7 @@
     </row>
     <row r="33" spans="1:12" ht="51">
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -1458,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -1478,7 +1507,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
@@ -1496,7 +1525,7 @@
         <v>500</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="34">
@@ -1504,7 +1533,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
@@ -1524,7 +1553,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
         <v>30</v>
@@ -1541,7 +1570,7 @@
     </row>
     <row r="38" spans="1:12" ht="51">
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -1558,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -1573,12 +1602,12 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="51">
+    <row r="40" spans="1:12" ht="34">
       <c r="A40" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
@@ -1598,7 +1627,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -1624,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -1639,12 +1668,12 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="51">
+    <row r="43" spans="1:12" ht="34">
       <c r="A43" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
@@ -1667,7 +1696,7 @@
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
